--- a/data/trans_orig/IP16B04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16B04-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6259530F-1F76-435D-8F12-C80A8F0B0DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0D58D57-AD16-4EE9-9749-820BDFC9DE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CA8A14B0-BA3D-4F70-AB50-184F8397881E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{10932D90-EC42-4A56-B07B-7A70F5D08BD6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -109,7 +109,7 @@
     <t>63,75%</t>
   </si>
   <si>
-    <t>Menores según si ha consumido laxantes recetados por el médico en 2015 (Tasa respuesta: 0,38%)</t>
+    <t>Menores según si ha consumido laxantes recetados por el médico en 2016 (Tasa respuesta: 0,38%)</t>
   </si>
   <si>
     <t>76,75%</t>
@@ -530,7 +530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D04DB3-5164-403D-9697-C61A56913D3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3A7B37-DD58-4211-911A-34484716F3E9}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1073,7 +1073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEF2FD1-3611-4831-BB43-AF22831EB992}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF83301F-8211-4C8E-9CB3-6035B788C95D}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1608,7 +1608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91148113-237A-454B-8C11-C5BB07654068}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6287F4-CAF8-4B6C-86C4-3DEE072C3829}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/IP16B04-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16B04-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0D58D57-AD16-4EE9-9749-820BDFC9DE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3753E264-5116-4742-9565-64133C1ADFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{10932D90-EC42-4A56-B07B-7A70F5D08BD6}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{D5A3C581-F6AB-47EE-9AD1-7C999E0062F2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -43,10 +43,10 @@
     <t>Menores según si ha consumido laxantes recetados por el médico en 2007 (Tasa respuesta: 0,24%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,6 +73,9 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>—%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
@@ -80,9 +83,6 @@
   </si>
   <si>
     <t>100%</t>
-  </si>
-  <si>
-    <t>—%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -530,7 +530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3A7B37-DD58-4211-911A-34484716F3E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E069E7-E3D8-47EF-B21F-3E6B0234EB4A}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -648,29 +648,29 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
         <v>673</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>14</v>
@@ -682,13 +682,13 @@
         <v>673</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -697,24 +697,24 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
         <v>673</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
         <v>14</v>
       </c>
@@ -731,13 +731,13 @@
         <v>673</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -751,31 +751,31 @@
         <v>1</v>
       </c>
       <c r="D6" s="7">
+        <v>669</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
         <v>698</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="J6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>669</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -784,13 +784,13 @@
         <v>1367</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -802,31 +802,31 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
+        <v>669</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
         <v>698</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>669</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -835,13 +835,13 @@
         <v>1367</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -855,31 +855,31 @@
         <v>1</v>
       </c>
       <c r="D8" s="7">
+        <v>767</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
         <v>813</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>767</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -888,13 +888,13 @@
         <v>1580</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -906,31 +906,31 @@
         <v>1</v>
       </c>
       <c r="D9" s="7">
+        <v>767</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
         <v>813</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7">
-        <v>767</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -939,13 +939,13 @@
         <v>1580</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -956,34 +956,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1436</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="7">
         <v>3</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>2184</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1436</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -992,13 +992,13 @@
         <v>3620</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>19</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1007,34 +1007,34 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1436</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="7">
         <v>3</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>2184</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1436</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -1043,13 +1043,13 @@
         <v>3620</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1073,7 +1073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF83301F-8211-4C8E-9CB3-6035B788C95D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B19659-C70D-42BB-9D6A-14AA010D35F8}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1191,32 +1191,32 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>627</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>627</v>
-      </c>
+      <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -1225,13 +1225,13 @@
         <v>627</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1240,32 +1240,32 @@
         <v>3</v>
       </c>
       <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>627</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>627</v>
-      </c>
+      <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -1274,13 +1274,13 @@
         <v>627</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1291,29 +1291,29 @@
         <v>10</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
         <v>607</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="J6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>14</v>
@@ -1325,13 +1325,13 @@
         <v>607</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1340,24 +1340,24 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
         <v>607</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
         <v>14</v>
       </c>
@@ -1374,13 +1374,13 @@
         <v>607</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1391,29 +1391,29 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="7">
         <v>2</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>1266</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>14</v>
@@ -1425,13 +1425,13 @@
         <v>1266</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1440,24 +1440,24 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="7">
         <v>2</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>1266</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
         <v>14</v>
       </c>
@@ -1474,13 +1474,13 @@
         <v>1266</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1491,34 +1491,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>627</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="7">
         <v>3</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>1873</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>627</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -1527,13 +1527,13 @@
         <v>2500</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1542,34 +1542,34 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>627</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="7">
         <v>3</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>1873</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>627</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -1578,13 +1578,13 @@
         <v>2500</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,7 +1608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6287F4-CAF8-4B6C-86C4-3DEE072C3829}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE82D06-7EF9-4567-AB4D-6934C7A884FD}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1730,39 +1730,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1775,39 +1775,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1818,34 +1818,34 @@
         <v>10</v>
       </c>
       <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3301</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>1370</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="J6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="7">
-        <v>5</v>
-      </c>
-      <c r="I6" s="7">
-        <v>3301</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -1854,13 +1854,13 @@
         <v>4670</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1869,34 +1869,34 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3301</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="7">
         <v>2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>1370</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7">
-        <v>5</v>
-      </c>
-      <c r="I7" s="7">
-        <v>3301</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -1905,13 +1905,13 @@
         <v>4670</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1922,32 +1922,32 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>727</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="7">
         <v>0</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>727</v>
-      </c>
+      <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -1956,13 +1956,13 @@
         <v>727</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1971,32 +1971,32 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>727</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="7">
         <v>0</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7">
-        <v>727</v>
-      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -2005,13 +2005,13 @@
         <v>727</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2022,34 +2022,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7">
+        <v>4028</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="7">
         <v>2</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>1370</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>6</v>
-      </c>
-      <c r="I10" s="7">
-        <v>4028</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -2058,13 +2058,13 @@
         <v>5398</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>26</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,34 +2073,34 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>6</v>
+      </c>
+      <c r="D11" s="7">
+        <v>4028</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="7">
         <v>2</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>1370</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="7">
-        <v>6</v>
-      </c>
-      <c r="I11" s="7">
-        <v>4028</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -2109,13 +2109,13 @@
         <v>5398</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
